--- a/excel_files/17.8.1.xlsx
+++ b/excel_files/17.8.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\ПоказателиЦУР для Платформы\Глобальные показатели ЦУР\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\Показатели ЦУР для Платформы\Глобальные показатели ЦУР\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -47,9 +47,6 @@
     <t>Местность</t>
   </si>
   <si>
-    <t>Образование</t>
-  </si>
-  <si>
     <t>Основное общее</t>
   </si>
   <si>
@@ -59,18 +56,6 @@
     <t>Всего</t>
   </si>
   <si>
-    <t>Пол</t>
-  </si>
-  <si>
-    <t>Мужской</t>
-  </si>
-  <si>
-    <t>Женский</t>
-  </si>
-  <si>
-    <t>Возраст</t>
-  </si>
-  <si>
     <t>Молодёжь, 15-28 лет</t>
   </si>
   <si>
@@ -128,24 +113,12 @@
     <t>Городская</t>
   </si>
   <si>
-    <t>urban</t>
-  </si>
-  <si>
     <t>айыл</t>
   </si>
   <si>
     <t>Сельская</t>
   </si>
   <si>
-    <t>rural</t>
-  </si>
-  <si>
-    <t>Жынысы</t>
-  </si>
-  <si>
-    <t>Sex</t>
-  </si>
-  <si>
     <t>Эркектер</t>
   </si>
   <si>
@@ -158,15 +131,6 @@
     <t> Women</t>
   </si>
   <si>
-    <t>Аймактар</t>
-  </si>
-  <si>
-    <t>Территория</t>
-  </si>
-  <si>
-    <t>Territory</t>
-  </si>
-  <si>
     <t>Баткен облусу</t>
   </si>
   <si>
@@ -248,12 +212,6 @@
     <t>Osh city</t>
   </si>
   <si>
-    <t>Жаш курагы</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
     <t>15-28 жаштагы жаштар</t>
   </si>
   <si>
@@ -269,12 +227,6 @@
     <t>Over working age</t>
   </si>
   <si>
-    <t>Билими</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
     <t>Башталгыч жана андан төмөн</t>
   </si>
   <si>
@@ -357,6 +309,54 @@
   </si>
   <si>
     <t>Эмгекке жарактуу жаштан жогорку калктын саны</t>
+  </si>
+  <si>
+    <t>Жынысы боюнча</t>
+  </si>
+  <si>
+    <t>По полу</t>
+  </si>
+  <si>
+    <t>Аймактар боюнча</t>
+  </si>
+  <si>
+    <t>По территории</t>
+  </si>
+  <si>
+    <t>Жаш курагы боюнча</t>
+  </si>
+  <si>
+    <t>По возрасту</t>
+  </si>
+  <si>
+    <t>Билими боюнча</t>
+  </si>
+  <si>
+    <t>По образованию</t>
+  </si>
+  <si>
+    <t>Мужчины</t>
+  </si>
+  <si>
+    <t>Женщины</t>
+  </si>
+  <si>
+    <t>Urban</t>
+  </si>
+  <si>
+    <t>Rural</t>
+  </si>
+  <si>
+    <t>By sex</t>
+  </si>
+  <si>
+    <t>By territory</t>
+  </si>
+  <si>
+    <t>By age</t>
+  </si>
+  <si>
+    <t>By education</t>
   </si>
 </sst>
 </file>
@@ -552,7 +552,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -669,6 +669,11 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -963,18 +968,18 @@
     <col min="4" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -986,14 +991,14 @@
       </c>
       <c r="D2" s="33"/>
     </row>
-    <row r="3" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="33"/>
       <c r="E3" s="33"/>
     </row>
-    <row r="4" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
@@ -1009,16 +1014,19 @@
       <c r="E4" s="1">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F4" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D5" s="31">
         <v>62.8</v>
@@ -1026,28 +1034,32 @@
       <c r="E5" s="40">
         <v>64.089120871412391</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="40">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E6" s="18"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" s="18"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="34" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="D7" s="16">
         <v>67.099999999999994</v>
@@ -1055,16 +1067,19 @@
       <c r="E7" s="18">
         <v>71.135320913355628</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" s="18">
+        <v>78.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="D8" s="16">
         <v>60.2</v>
@@ -1072,28 +1087,32 @@
       <c r="E8" s="18">
         <v>59.898501080802355</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" s="18">
+        <v>68.099999999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="E9" s="18"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" s="18"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D10" s="16">
         <v>63.7</v>
@@ -1101,16 +1120,19 @@
       <c r="E10" s="18">
         <v>63.685825394263922</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" s="18">
+        <v>72.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D11" s="16">
         <v>62.1</v>
@@ -1118,28 +1140,32 @@
       <c r="E11" s="18">
         <v>64.425620770813026</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" s="18">
+        <v>71.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="43" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="E12" s="18"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D13" s="16">
         <v>43.5</v>
@@ -1147,16 +1173,19 @@
       <c r="E13" s="18">
         <v>58.014757263312411</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" s="18">
+        <v>65.099999999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D14" s="16">
         <v>55.3</v>
@@ -1164,16 +1193,19 @@
       <c r="E14" s="18">
         <v>48.46668981921794</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" s="18">
+        <v>53.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D15" s="16">
         <v>54.2</v>
@@ -1181,16 +1213,19 @@
       <c r="E15" s="18">
         <v>59.724238681276773</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" s="18">
+        <v>76.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D16" s="16">
         <v>40.700000000000003</v>
@@ -1198,16 +1233,19 @@
       <c r="E16" s="18">
         <v>57.042169810946156</v>
       </c>
+      <c r="F16" s="18">
+        <v>66.400000000000006</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D17" s="16">
         <v>75.599999999999994</v>
@@ -1215,16 +1253,19 @@
       <c r="E17" s="18">
         <v>67.924977955802433</v>
       </c>
+      <c r="F17" s="18">
+        <v>75.8</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D18" s="16">
         <v>63.9</v>
@@ -1232,16 +1273,19 @@
       <c r="E18" s="18">
         <v>58.27606513858354</v>
       </c>
+      <c r="F18" s="18">
+        <v>67.599999999999994</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="45" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D19" s="16">
         <v>65.8</v>
@@ -1249,16 +1293,19 @@
       <c r="E19" s="18">
         <v>68.069686308098227</v>
       </c>
+      <c r="F19" s="18">
+        <v>75.2</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D20" s="16">
         <v>69.7</v>
@@ -1266,16 +1313,19 @@
       <c r="E20" s="18">
         <v>80.430230055962895</v>
       </c>
+      <c r="F20" s="18">
+        <v>87.9</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D21" s="16">
         <v>68.5</v>
@@ -1283,28 +1333,32 @@
       <c r="E21" s="18">
         <v>67.223678373628857</v>
       </c>
+      <c r="F21" s="18">
+        <v>72.900000000000006</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="42" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D23" s="16">
         <v>82.1</v>
@@ -1312,16 +1366,19 @@
       <c r="E23" s="18">
         <v>84.695276649496819</v>
       </c>
+      <c r="F23" s="18">
+        <v>86.1</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D24" s="16">
         <v>63.1</v>
@@ -1329,16 +1386,19 @@
       <c r="E24" s="18">
         <v>66.216432166626376</v>
       </c>
+      <c r="F24" s="18">
+        <v>77.3</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="D25" s="16">
         <v>25.9</v>
@@ -1346,28 +1406,32 @@
       <c r="E25" s="18">
         <v>21.337009954150652</v>
       </c>
+      <c r="F25" s="18">
+        <v>33.4</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="42" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="D27" s="15">
         <v>47.9</v>
@@ -1375,16 +1439,19 @@
       <c r="E27" s="30">
         <v>48.223983301944585</v>
       </c>
+      <c r="F27" s="30">
+        <v>52.9</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D28" s="15">
         <v>69.5</v>
@@ -1392,16 +1459,19 @@
       <c r="E28" s="30">
         <v>66.897515089024566</v>
       </c>
+      <c r="F28" s="30">
+        <v>70.8</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="45" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C29" s="45" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D29" s="15">
         <v>56.1</v>
@@ -1409,16 +1479,19 @@
       <c r="E29" s="30">
         <v>57.461270516069469</v>
       </c>
+      <c r="F29" s="30">
+        <v>66.3</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="34" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D30" s="15">
         <v>61.9</v>
@@ -1426,16 +1499,19 @@
       <c r="E30" s="30">
         <v>64.187427095762615</v>
       </c>
+      <c r="F30" s="30">
+        <v>74.7</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="36" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="D31" s="15">
         <v>81.099999999999994</v>
@@ -1443,31 +1519,34 @@
       <c r="E31" s="30">
         <v>83.898865237019621</v>
       </c>
+      <c r="F31" s="30">
+        <v>89.6</v>
+      </c>
     </row>
     <row r="32" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D32" s="37"/>
       <c r="E32" s="41"/>
-      <c r="F32" s="16"/>
+      <c r="F32" s="46"/>
       <c r="G32" s="38"/>
     </row>
     <row r="33" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="34" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="D33" s="30">
         <v>48.021936098331928</v>
@@ -1475,18 +1554,20 @@
       <c r="E33" s="30">
         <v>51.35121613726983</v>
       </c>
-      <c r="F33" s="16"/>
+      <c r="F33" s="47">
+        <v>63.612512234410985</v>
+      </c>
       <c r="G33" s="38"/>
     </row>
     <row r="34" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="34" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="D34" s="30">
         <v>59.801066167503883</v>
@@ -1494,18 +1575,20 @@
       <c r="E34" s="30">
         <v>63.874814605239898</v>
       </c>
-      <c r="F34" s="16"/>
+      <c r="F34" s="47">
+        <v>72.131340031801514</v>
+      </c>
       <c r="G34" s="38"/>
     </row>
     <row r="35" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="34" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="D35" s="30">
         <v>64.756487607182024</v>
@@ -1513,18 +1596,20 @@
       <c r="E35" s="30">
         <v>64.51908766937521</v>
       </c>
-      <c r="F35" s="16"/>
+      <c r="F35" s="47">
+        <v>75.011206485295403</v>
+      </c>
       <c r="G35" s="38"/>
     </row>
     <row r="36" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="34" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="D36" s="30">
         <v>67.075447807937309</v>
@@ -1532,18 +1617,20 @@
       <c r="E36" s="30">
         <v>69.120332969842991</v>
       </c>
-      <c r="F36" s="16"/>
+      <c r="F36" s="47">
+        <v>73.839713333000759</v>
+      </c>
       <c r="G36" s="38"/>
     </row>
     <row r="37" spans="1:7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="35" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="D37" s="39">
         <v>69.45648785477573</v>
@@ -1551,18 +1638,20 @@
       <c r="E37" s="39">
         <v>67.919399603347458</v>
       </c>
-      <c r="F37" s="16"/>
+      <c r="F37" s="48">
+        <v>77.713412931337871</v>
+      </c>
       <c r="G37" s="38"/>
     </row>
     <row r="38" spans="1:7" ht="24" x14ac:dyDescent="0.2">
       <c r="A38" s="34" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">

--- a/excel_files/17.8.1.xlsx
+++ b/excel_files/17.8.1.xlsx
@@ -366,7 +366,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -469,13 +469,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <b/>
       <i/>
       <sz val="9"/>
@@ -552,7 +545,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -653,22 +646,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -958,7 +948,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -968,7 +960,7 @@
     <col min="4" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>15</v>
       </c>
@@ -979,7 +971,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -991,14 +983,14 @@
       </c>
       <c r="D2" s="33"/>
     </row>
-    <row r="3" spans="1:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="33"/>
       <c r="E3" s="33"/>
     </row>
-    <row r="4" spans="1:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
@@ -1017,8 +1009,11 @@
       <c r="F4" s="1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G4" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>23</v>
       </c>
@@ -1031,14 +1026,17 @@
       <c r="D5" s="31">
         <v>62.8</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="39">
         <v>64.089120871412391</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="39">
         <v>72</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="39">
+        <v>78.853813005752002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
         <v>25</v>
       </c>
@@ -1050,8 +1048,9 @@
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="18"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="34" t="s">
         <v>27</v>
       </c>
@@ -1070,8 +1069,11 @@
       <c r="F7" s="18">
         <v>78.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="18">
+        <v>84.507278813486096</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="34" t="s">
         <v>29</v>
       </c>
@@ -1090,8 +1092,11 @@
       <c r="F8" s="18">
         <v>68.099999999999994</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="18">
+        <v>75.327722835989789</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
         <v>95</v>
       </c>
@@ -1103,8 +1108,9 @@
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="18"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
         <v>31</v>
       </c>
@@ -1123,8 +1129,11 @@
       <c r="F10" s="18">
         <v>72.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="18">
+        <v>79.192300555620321</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
         <v>33</v>
       </c>
@@ -1143,21 +1152,25 @@
       <c r="F11" s="18">
         <v>71.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="43" t="s">
+      <c r="G11" s="18">
+        <v>78.569896490765998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="43" t="s">
         <v>108</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
         <v>35</v>
       </c>
@@ -1176,8 +1189,11 @@
       <c r="F13" s="18">
         <v>65.099999999999994</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" s="18">
+        <v>74.503221737737448</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
         <v>38</v>
       </c>
@@ -1196,8 +1212,11 @@
       <c r="F14" s="18">
         <v>53.9</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="18">
+        <v>64.077216740015658</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
         <v>41</v>
       </c>
@@ -1216,8 +1235,11 @@
       <c r="F15" s="18">
         <v>76.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" s="18">
+        <v>84.266838776141583</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
         <v>44</v>
       </c>
@@ -1235,6 +1257,9 @@
       </c>
       <c r="F16" s="18">
         <v>66.400000000000006</v>
+      </c>
+      <c r="G16" s="18">
+        <v>75.633446005560131</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1256,6 +1281,9 @@
       <c r="F17" s="18">
         <v>75.8</v>
       </c>
+      <c r="G17" s="18">
+        <v>80.623148544850835</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
@@ -1276,15 +1304,18 @@
       <c r="F18" s="18">
         <v>67.599999999999994</v>
       </c>
+      <c r="G18" s="18">
+        <v>75.125517049696029</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="44" t="s">
         <v>53</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="44" t="s">
         <v>55</v>
       </c>
       <c r="D19" s="16">
@@ -1295,6 +1326,9 @@
       </c>
       <c r="F19" s="18">
         <v>75.2</v>
+      </c>
+      <c r="G19" s="18">
+        <v>81.503125916969921</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1316,6 +1350,9 @@
       <c r="F20" s="18">
         <v>87.9</v>
       </c>
+      <c r="G20" s="18">
+        <v>91.007501865059879</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
@@ -1336,19 +1373,23 @@
       <c r="F21" s="18">
         <v>72.900000000000006</v>
       </c>
+      <c r="G21" s="18">
+        <v>83.858925355413973</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="41" t="s">
         <v>109</v>
       </c>
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
@@ -1369,6 +1410,9 @@
       <c r="F23" s="18">
         <v>86.1</v>
       </c>
+      <c r="G23" s="18">
+        <v>92.988278820715635</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
@@ -1389,6 +1433,9 @@
       <c r="F24" s="18">
         <v>77.3</v>
       </c>
+      <c r="G24" s="18">
+        <v>82.911602220512549</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
@@ -1409,19 +1456,23 @@
       <c r="F25" s="18">
         <v>33.4</v>
       </c>
+      <c r="G25" s="30">
+        <v>44.839535439657624</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="42" t="s">
+      <c r="C26" s="41" t="s">
         <v>110</v>
       </c>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
+      <c r="G26" s="30"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
@@ -1442,6 +1493,9 @@
       <c r="F27" s="30">
         <v>52.9</v>
       </c>
+      <c r="G27" s="30">
+        <v>64.794297975031597</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
@@ -1462,15 +1516,18 @@
       <c r="F28" s="30">
         <v>70.8</v>
       </c>
+      <c r="G28" s="30">
+        <v>81.511512685339085</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="45" t="s">
+      <c r="B29" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="45" t="s">
+      <c r="C29" s="44" t="s">
         <v>72</v>
       </c>
       <c r="D29" s="15">
@@ -1481,6 +1538,9 @@
       </c>
       <c r="F29" s="30">
         <v>66.3</v>
+      </c>
+      <c r="G29" s="30">
+        <v>73.697745233389</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1502,6 +1562,9 @@
       <c r="F30" s="30">
         <v>74.7</v>
       </c>
+      <c r="G30" s="40">
+        <v>80.698144655540872</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="36" t="s">
@@ -1522,6 +1585,9 @@
       <c r="F31" s="30">
         <v>89.6</v>
       </c>
+      <c r="G31" s="30">
+        <v>92.501624750472388</v>
+      </c>
     </row>
     <row r="32" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
@@ -1534,9 +1600,9 @@
         <v>79</v>
       </c>
       <c r="D32" s="37"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="38"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="30"/>
     </row>
     <row r="33" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="34" t="s">
@@ -1554,10 +1620,12 @@
       <c r="E33" s="30">
         <v>51.35121613726983</v>
       </c>
-      <c r="F33" s="47">
+      <c r="F33" s="46">
         <v>63.612512234410985</v>
       </c>
-      <c r="G33" s="38"/>
+      <c r="G33" s="30">
+        <v>70.906713165406316</v>
+      </c>
     </row>
     <row r="34" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="34" t="s">
@@ -1575,10 +1643,12 @@
       <c r="E34" s="30">
         <v>63.874814605239898</v>
       </c>
-      <c r="F34" s="47">
+      <c r="F34" s="46">
         <v>72.131340031801514</v>
       </c>
-      <c r="G34" s="38"/>
+      <c r="G34" s="30">
+        <v>78.880476616345732</v>
+      </c>
     </row>
     <row r="35" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="34" t="s">
@@ -1596,10 +1666,12 @@
       <c r="E35" s="30">
         <v>64.51908766937521</v>
       </c>
-      <c r="F35" s="47">
+      <c r="F35" s="46">
         <v>75.011206485295403</v>
       </c>
-      <c r="G35" s="38"/>
+      <c r="G35" s="30">
+        <v>81.987649503847223</v>
+      </c>
     </row>
     <row r="36" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="34" t="s">
@@ -1617,10 +1689,12 @@
       <c r="E36" s="30">
         <v>69.120332969842991</v>
       </c>
-      <c r="F36" s="47">
+      <c r="F36" s="46">
         <v>73.839713333000759</v>
       </c>
-      <c r="G36" s="38"/>
+      <c r="G36" s="30">
+        <v>80.196916603277828</v>
+      </c>
     </row>
     <row r="37" spans="1:7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="35" t="s">
@@ -1632,16 +1706,18 @@
       <c r="C37" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="D37" s="39">
+      <c r="D37" s="38">
         <v>69.45648785477573</v>
       </c>
-      <c r="E37" s="39">
+      <c r="E37" s="38">
         <v>67.919399603347458</v>
       </c>
-      <c r="F37" s="48">
+      <c r="F37" s="47">
         <v>77.713412931337871</v>
       </c>
-      <c r="G37" s="38"/>
+      <c r="G37" s="38">
+        <v>83.545634057046328</v>
+      </c>
     </row>
     <row r="38" spans="1:7" ht="24" x14ac:dyDescent="0.2">
       <c r="A38" s="34" t="s">

--- a/excel_files/17.8.1.xlsx
+++ b/excel_files/17.8.1.xlsx
@@ -545,7 +545,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -664,6 +664,9 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -946,10 +949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -960,7 +963,7 @@
     <col min="4" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>15</v>
       </c>
@@ -971,7 +974,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -983,14 +986,14 @@
       </c>
       <c r="D2" s="33"/>
     </row>
-    <row r="3" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="33"/>
       <c r="E3" s="33"/>
     </row>
-    <row r="4" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
@@ -1012,8 +1015,11 @@
       <c r="G4" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H4" s="48">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>23</v>
       </c>
@@ -1035,8 +1041,11 @@
       <c r="G5" s="39">
         <v>78.853813005752002</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" s="39">
+        <v>81.862016970509259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
         <v>25</v>
       </c>
@@ -1049,8 +1058,9 @@
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" s="18"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="34" t="s">
         <v>27</v>
       </c>
@@ -1072,8 +1082,11 @@
       <c r="G7" s="18">
         <v>84.507278813486096</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" s="18">
+        <v>86.585358713004567</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="34" t="s">
         <v>29</v>
       </c>
@@ -1095,8 +1108,11 @@
       <c r="G8" s="18">
         <v>75.327722835989789</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" s="18">
+        <v>78.874153085775617</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
         <v>95</v>
       </c>
@@ -1109,8 +1125,9 @@
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
         <v>31</v>
       </c>
@@ -1132,8 +1149,11 @@
       <c r="G10" s="18">
         <v>79.192300555620321</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" s="18">
+        <v>81.995002142578798</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
         <v>33</v>
       </c>
@@ -1155,8 +1175,11 @@
       <c r="G11" s="18">
         <v>78.569896490765998</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" s="18">
+        <v>81.751191272540339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="42" t="s">
         <v>97</v>
       </c>
@@ -1169,8 +1192,9 @@
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
         <v>35</v>
       </c>
@@ -1192,8 +1216,11 @@
       <c r="G13" s="18">
         <v>74.503221737737448</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" s="18">
+        <v>77.522838671582605</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
         <v>38</v>
       </c>
@@ -1215,8 +1242,11 @@
       <c r="G14" s="18">
         <v>64.077216740015658</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" s="18">
+        <v>66.601698657243347</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
         <v>41</v>
       </c>
@@ -1238,8 +1268,11 @@
       <c r="G15" s="18">
         <v>84.266838776141583</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" s="18">
+        <v>85.894781180736743</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
         <v>44</v>
       </c>
@@ -1261,8 +1294,11 @@
       <c r="G16" s="18">
         <v>75.633446005560131</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" s="18">
+        <v>81.569751097482396</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
         <v>47</v>
       </c>
@@ -1284,8 +1320,11 @@
       <c r="G17" s="18">
         <v>80.623148544850835</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" s="18">
+        <v>85.001032443314145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
         <v>50</v>
       </c>
@@ -1307,8 +1346,11 @@
       <c r="G18" s="18">
         <v>75.125517049696029</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" s="18">
+        <v>81.552074149918198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="44" t="s">
         <v>53</v>
       </c>
@@ -1330,8 +1372,11 @@
       <c r="G19" s="18">
         <v>81.503125916969921</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" s="18">
+        <v>82.790688766040688</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>56</v>
       </c>
@@ -1353,8 +1398,11 @@
       <c r="G20" s="18">
         <v>91.007501865059879</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" s="18">
+        <v>93.317578294701249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>59</v>
       </c>
@@ -1376,8 +1424,11 @@
       <c r="G21" s="18">
         <v>83.858925355413973</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21" s="18">
+        <v>84.019175834241665</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="41" t="s">
         <v>99</v>
       </c>
@@ -1390,8 +1441,9 @@
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22" s="18"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>62</v>
       </c>
@@ -1413,8 +1465,11 @@
       <c r="G23" s="18">
         <v>92.988278820715635</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" s="18">
+        <v>92.255124888663659</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>93</v>
       </c>
@@ -1436,8 +1491,11 @@
       <c r="G24" s="18">
         <v>82.911602220512549</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24" s="18">
+        <v>86.95592239090189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>94</v>
       </c>
@@ -1459,8 +1517,11 @@
       <c r="G25" s="30">
         <v>44.839535439657624</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25" s="18">
+        <v>51.996782034058619</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="41" t="s">
         <v>101</v>
       </c>
@@ -1473,8 +1534,9 @@
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
       <c r="G26" s="30"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26" s="18"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
         <v>67</v>
       </c>
@@ -1496,8 +1558,11 @@
       <c r="G27" s="30">
         <v>64.794297975031597</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27" s="18">
+        <v>67.149229072430359</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>69</v>
       </c>
@@ -1519,8 +1584,11 @@
       <c r="G28" s="30">
         <v>81.511512685339085</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28" s="18">
+        <v>82.15395398700943</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="44" t="s">
         <v>71</v>
       </c>
@@ -1542,8 +1610,11 @@
       <c r="G29" s="30">
         <v>73.697745233389</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29" s="18">
+        <v>77.337795920279802</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="34" t="s">
         <v>73</v>
       </c>
@@ -1565,8 +1636,11 @@
       <c r="G30" s="40">
         <v>80.698144655540872</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30" s="40">
+        <v>85.33872174569531</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="36" t="s">
         <v>76</v>
       </c>
@@ -1588,8 +1662,11 @@
       <c r="G31" s="30">
         <v>92.501624750472388</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="H31" s="18">
+        <v>93.651282895421062</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
         <v>78</v>
       </c>
@@ -1603,8 +1680,9 @@
       <c r="E32" s="40"/>
       <c r="F32" s="45"/>
       <c r="G32" s="30"/>
-    </row>
-    <row r="33" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="H32" s="18"/>
+    </row>
+    <row r="33" spans="1:8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="34" t="s">
         <v>80</v>
       </c>
@@ -1626,8 +1704,11 @@
       <c r="G33" s="30">
         <v>70.906713165406316</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="H33" s="18">
+        <v>79.090400658691138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="34" t="s">
         <v>82</v>
       </c>
@@ -1649,8 +1730,11 @@
       <c r="G34" s="30">
         <v>78.880476616345732</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="H34" s="18">
+        <v>80.566668542092316</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="34" t="s">
         <v>84</v>
       </c>
@@ -1672,8 +1756,11 @@
       <c r="G35" s="30">
         <v>81.987649503847223</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="H35" s="18">
+        <v>80.883656111303807</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="34" t="s">
         <v>86</v>
       </c>
@@ -1695,8 +1782,11 @@
       <c r="G36" s="30">
         <v>80.196916603277828</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H36" s="18">
+        <v>84.475532036220429</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="35" t="s">
         <v>88</v>
       </c>
@@ -1718,8 +1808,11 @@
       <c r="G37" s="38">
         <v>83.545634057046328</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="24" x14ac:dyDescent="0.2">
+      <c r="H37" s="38">
+        <v>85.812953701242378</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A38" s="34" t="s">
         <v>90</v>
       </c>
@@ -1730,48 +1823,48 @@
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="34"/>
       <c r="C39" s="19"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="34"/>
       <c r="C40" s="19"/>
       <c r="D40" s="18"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="28"/>
       <c r="B41" s="17"/>
       <c r="C41" s="21"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="34"/>
       <c r="C42" s="22"/>
       <c r="D42" s="18"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="34"/>
       <c r="C43" s="22"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
       <c r="B44" s="17"/>
       <c r="C44" s="21"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="27"/>
       <c r="C45" s="19"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
       <c r="C46" s="19"/>
       <c r="D46" s="18"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="27"/>
       <c r="C47" s="19"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="29"/>
       <c r="B48" s="15"/>
       <c r="C48" s="19"/>

--- a/excel_files/17.8.1.xlsx
+++ b/excel_files/17.8.1.xlsx
@@ -366,7 +366,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -469,25 +469,17 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="9"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="9"/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -565,17 +557,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -628,9 +614,6 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -651,14 +634,6 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -666,6 +641,27 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -949,51 +945,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="43" style="16" customWidth="1"/>
-    <col min="3" max="3" width="39.42578125" style="16" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="3" width="36.7109375" style="14" customWidth="1"/>
+    <col min="4" max="8" width="9.140625" style="14"/>
+    <col min="9" max="9" width="9.140625" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="33"/>
-    </row>
-    <row r="3" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="30"/>
+    </row>
+    <row r="3" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-    </row>
-    <row r="4" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+    </row>
+    <row r="4" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
@@ -1015,872 +1009,962 @@
       <c r="G4" s="1">
         <v>2021</v>
       </c>
-      <c r="H4" s="48">
+      <c r="H4" s="41">
         <v>2022</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="I4" s="41">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="29" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="29">
         <v>62.8</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="36">
         <v>64.089120871412391</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="36">
         <v>72</v>
       </c>
-      <c r="G5" s="39">
+      <c r="G5" s="36">
         <v>78.853813005752002</v>
       </c>
-      <c r="H5" s="39">
+      <c r="H5" s="36">
         <v>81.862016970509259</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
+      <c r="I5" s="36">
+        <v>86.113021088083215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="34" t="s">
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="14">
         <v>67.099999999999994</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="16">
         <v>71.135320913355628</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="16">
         <v>78.2</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="16">
         <v>84.507278813486096</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="16">
         <v>86.585358713004567</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="s">
+      <c r="I7" s="16">
+        <v>90.052395231935563</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="14">
         <v>60.2</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="16">
         <v>59.898501080802355</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="16">
         <v>68.099999999999994</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="16">
         <v>75.327722835989789</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="16">
         <v>78.874153085775617</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
+      <c r="I8" s="16">
+        <v>83.650064565805053</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+    </row>
+    <row r="10" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="14">
         <v>63.7</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="16">
         <v>63.685825394263922</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="16">
         <v>72.8</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="16">
         <v>79.192300555620321</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="16">
         <v>81.995002142578798</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
+      <c r="I10" s="16">
+        <v>86.825494089174455</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="14">
         <v>62.1</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="16">
         <v>64.425620770813026</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="16">
         <v>71.2</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="16">
         <v>78.569896490765998</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="16">
         <v>81.751191272540339</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="42" t="s">
+      <c r="I11" s="16">
+        <v>85.508401665267698</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+    </row>
+    <row r="13" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="14">
         <v>43.5</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="16">
         <v>58.014757263312411</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="16">
         <v>65.099999999999994</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="16">
         <v>74.503221737737448</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="16">
         <v>77.522838671582605</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
+      <c r="I13" s="16">
+        <v>83.431006248132036</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="14">
         <v>55.3</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="16">
         <v>48.46668981921794</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="16">
         <v>53.9</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="16">
         <v>64.077216740015658</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="16">
         <v>66.601698657243347</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="25" t="s">
+      <c r="I14" s="16">
+        <v>69.978703396630792</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="14">
         <v>54.2</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="16">
         <v>59.724238681276773</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="16">
         <v>76.5</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="16">
         <v>84.266838776141583</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="16">
         <v>85.894781180736743</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
+      <c r="I15" s="16">
+        <v>89.438446897118652</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="14">
         <v>40.700000000000003</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="16">
         <v>57.042169810946156</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="16">
         <v>66.400000000000006</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="16">
         <v>75.633446005560131</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="16">
         <v>81.569751097482396</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="26" t="s">
+      <c r="I16" s="16">
+        <v>85.050448319380493</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="14">
         <v>75.599999999999994</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="16">
         <v>67.924977955802433</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="16">
         <v>75.8</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="16">
         <v>80.623148544850835</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="16">
         <v>85.001032443314145</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="26" t="s">
+      <c r="I17" s="16">
+        <v>90.731106591108357</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="14">
         <v>63.9</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="16">
         <v>58.27606513858354</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="16">
         <v>67.599999999999994</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="16">
         <v>75.125517049696029</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="16">
         <v>81.552074149918198</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="44" t="s">
+      <c r="I18" s="16">
+        <v>87.049095014451183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="14">
         <v>65.8</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="16">
         <v>68.069686308098227</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="16">
         <v>75.2</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="16">
         <v>81.503125916969921</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="16">
         <v>82.790688766040688</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
+      <c r="I19" s="16">
+        <v>88.380153048901903</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="14">
         <v>69.7</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="16">
         <v>80.430230055962895</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="16">
         <v>87.9</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="16">
         <v>91.007501865059879</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="16">
         <v>93.317578294701249</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
+      <c r="I20" s="16">
+        <v>95.059232846432664</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="14">
         <v>68.5</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="16">
         <v>67.223678373628857</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="16">
         <v>72.900000000000006</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="16">
         <v>83.858925355413973</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="16">
         <v>84.019175834241665</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="41" t="s">
+      <c r="I21" s="16">
+        <v>90.384389589564591</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="s">
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+    </row>
+    <row r="23" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="14">
         <v>82.1</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="16">
         <v>84.695276649496819</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="16">
         <v>86.1</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="16">
         <v>92.988278820715635</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H23" s="16">
         <v>92.255124888663659</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
+      <c r="I23" s="16">
+        <v>94.48054002633701</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="14">
         <v>63.1</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="16">
         <v>66.216432166626376</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="16">
         <v>77.3</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="16">
         <v>82.911602220512549</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H24" s="16">
         <v>86.95592239090189</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
+      <c r="I24" s="16">
+        <v>90.371556857711852</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="14">
         <v>25.9</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="16">
         <v>21.337009954150652</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="16">
         <v>33.4</v>
       </c>
-      <c r="G25" s="30">
+      <c r="G25" s="28">
         <v>44.839535439657624</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H25" s="16">
         <v>51.996782034058619</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="41" t="s">
+      <c r="I25" s="16">
+        <v>62.580311693710286</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="18"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="16" t="s">
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+    </row>
+    <row r="27" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="13">
         <v>47.9</v>
       </c>
-      <c r="E27" s="30">
+      <c r="E27" s="28">
         <v>48.223983301944585</v>
       </c>
-      <c r="F27" s="30">
+      <c r="F27" s="28">
         <v>52.9</v>
       </c>
-      <c r="G27" s="30">
+      <c r="G27" s="28">
         <v>64.794297975031597</v>
       </c>
-      <c r="H27" s="18">
+      <c r="H27" s="16">
         <v>67.149229072430359</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="16" t="s">
+      <c r="I27" s="16">
+        <v>68.716149044597714</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="13">
         <v>69.5</v>
       </c>
-      <c r="E28" s="30">
+      <c r="E28" s="28">
         <v>66.897515089024566</v>
       </c>
-      <c r="F28" s="30">
+      <c r="F28" s="28">
         <v>70.8</v>
       </c>
-      <c r="G28" s="30">
+      <c r="G28" s="28">
         <v>81.511512685339085</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H28" s="16">
         <v>82.15395398700943</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="44" t="s">
+      <c r="I28" s="16">
+        <v>87.508827266167032</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="44" t="s">
+      <c r="C29" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="13">
         <v>56.1</v>
       </c>
-      <c r="E29" s="30">
+      <c r="E29" s="28">
         <v>57.461270516069469</v>
       </c>
-      <c r="F29" s="30">
+      <c r="F29" s="28">
         <v>66.3</v>
       </c>
-      <c r="G29" s="30">
+      <c r="G29" s="28">
         <v>73.697745233389</v>
       </c>
-      <c r="H29" s="18">
+      <c r="H29" s="16">
         <v>77.337795920279802</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="34" t="s">
+      <c r="I29" s="16">
+        <v>81.939359306250495</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="13">
         <v>61.9</v>
       </c>
-      <c r="E30" s="30">
+      <c r="E30" s="28">
         <v>64.187427095762615</v>
       </c>
-      <c r="F30" s="30">
+      <c r="F30" s="28">
         <v>74.7</v>
       </c>
-      <c r="G30" s="40">
+      <c r="G30" s="37">
         <v>80.698144655540872</v>
       </c>
-      <c r="H30" s="40">
+      <c r="H30" s="37">
         <v>85.33872174569531</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="36" t="s">
+      <c r="I30" s="37">
+        <v>89.93259718493691</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="13">
         <v>81.099999999999994</v>
       </c>
-      <c r="E31" s="30">
+      <c r="E31" s="28">
         <v>83.898865237019621</v>
       </c>
-      <c r="F31" s="30">
+      <c r="F31" s="28">
         <v>89.6</v>
       </c>
-      <c r="G31" s="30">
+      <c r="G31" s="28">
         <v>92.501624750472388</v>
       </c>
-      <c r="H31" s="18">
+      <c r="H31" s="16">
         <v>93.651282895421062</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
+      <c r="I31" s="16">
+        <v>96.031269704782474</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D32" s="37"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="18"/>
-    </row>
-    <row r="33" spans="1:8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
+      <c r="D32" s="34"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+    </row>
+    <row r="33" spans="1:9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D33" s="30">
+      <c r="D33" s="28">
         <v>48.021936098331928</v>
       </c>
-      <c r="E33" s="30">
+      <c r="E33" s="28">
         <v>51.35121613726983</v>
       </c>
-      <c r="F33" s="46">
+      <c r="F33" s="39">
         <v>63.612512234410985</v>
       </c>
-      <c r="G33" s="30">
+      <c r="G33" s="28">
         <v>70.906713165406316</v>
       </c>
-      <c r="H33" s="18">
+      <c r="H33" s="16">
         <v>79.090400658691138</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
+      <c r="I33" s="16">
+        <v>85.840483399183398</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D34" s="30">
+      <c r="D34" s="28">
         <v>59.801066167503883</v>
       </c>
-      <c r="E34" s="30">
+      <c r="E34" s="28">
         <v>63.874814605239898</v>
       </c>
-      <c r="F34" s="46">
+      <c r="F34" s="39">
         <v>72.131340031801514</v>
       </c>
-      <c r="G34" s="30">
+      <c r="G34" s="28">
         <v>78.880476616345732</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H34" s="16">
         <v>80.566668542092316</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="34" t="s">
+      <c r="I34" s="16">
+        <v>85.612866567454745</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="30">
+      <c r="D35" s="28">
         <v>64.756487607182024</v>
       </c>
-      <c r="E35" s="30">
+      <c r="E35" s="28">
         <v>64.51908766937521</v>
       </c>
-      <c r="F35" s="46">
+      <c r="F35" s="39">
         <v>75.011206485295403</v>
       </c>
-      <c r="G35" s="30">
+      <c r="G35" s="28">
         <v>81.987649503847223</v>
       </c>
-      <c r="H35" s="18">
+      <c r="H35" s="16">
         <v>80.883656111303807</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
+      <c r="I35" s="16">
+        <v>84.73325342138196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D36" s="30">
+      <c r="D36" s="28">
         <v>67.075447807937309</v>
       </c>
-      <c r="E36" s="30">
+      <c r="E36" s="28">
         <v>69.120332969842991</v>
       </c>
-      <c r="F36" s="46">
+      <c r="F36" s="39">
         <v>73.839713333000759</v>
       </c>
-      <c r="G36" s="30">
+      <c r="G36" s="28">
         <v>80.196916603277828</v>
       </c>
-      <c r="H36" s="18">
+      <c r="H36" s="16">
         <v>84.475532036220429</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="35" t="s">
+      <c r="I36" s="16">
+        <v>85.232733591272591</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="D37" s="38">
+      <c r="D37" s="35">
         <v>69.45648785477573</v>
       </c>
-      <c r="E37" s="38">
+      <c r="E37" s="35">
         <v>67.919399603347458</v>
       </c>
-      <c r="F37" s="47">
+      <c r="F37" s="40">
         <v>77.713412931337871</v>
       </c>
-      <c r="G37" s="38">
+      <c r="G37" s="35">
         <v>83.545634057046328</v>
       </c>
-      <c r="H37" s="38">
+      <c r="H37" s="35">
         <v>85.812953701242378</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.2">
-      <c r="A38" s="34" t="s">
+      <c r="I37" s="35">
+        <v>88.581026729085679</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="48" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="34"/>
-      <c r="C39" s="19"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="34"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="18"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="28"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="21"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="34"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="18"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="34"/>
-      <c r="C43" s="22"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="21"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="21"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="27"/>
-      <c r="C45" s="19"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="27"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="18"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="27"/>
-      <c r="C47" s="19"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="29"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="30"/>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="31"/>
+      <c r="C39" s="17"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="31"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="16"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="26"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="19"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="31"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="16"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="31"/>
+      <c r="C43" s="20"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="19"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="19"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="25"/>
+      <c r="C45" s="17"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="25"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="16"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="25"/>
+      <c r="C47" s="17"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="27"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="28"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="29"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="15"/>
+      <c r="A49" s="27"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="13"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="36"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="15"/>
+      <c r="A50" s="33"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
